--- a/Documents/BitCalc.xlsx
+++ b/Documents/BitCalc.xlsx
@@ -222,10 +222,16 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -258,7 +264,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -325,16 +331,50 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -359,6 +399,26 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -640,10 +700,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R26"/>
+  <dimension ref="A1:R32"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+      <selection activeCell="K21" sqref="K21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -661,8 +721,8 @@
       <c r="C1" t="s">
         <v>40</v>
       </c>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
       <c r="F1" t="s">
         <v>39</v>
       </c>
@@ -675,8 +735,8 @@
       <c r="I1" t="s">
         <v>47</v>
       </c>
-      <c r="J1" s="3"/>
-      <c r="K1" s="3"/>
+      <c r="J1" s="4"/>
+      <c r="K1" s="4"/>
       <c r="L1" t="s">
         <v>48</v>
       </c>
@@ -689,7 +749,7 @@
       <c r="O1" t="s">
         <v>58</v>
       </c>
-      <c r="Q1" s="15" t="s">
+      <c r="Q1" s="16" t="s">
         <v>60</v>
       </c>
       <c r="R1" t="s">
@@ -706,8 +766,8 @@
       <c r="C2" t="s">
         <v>44</v>
       </c>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
       <c r="F2" t="s">
         <v>43</v>
       </c>
@@ -720,8 +780,8 @@
       <c r="I2" t="s">
         <v>51</v>
       </c>
-      <c r="J2" s="3"/>
-      <c r="K2" s="3"/>
+      <c r="J2" s="4"/>
+      <c r="K2" s="4"/>
       <c r="L2" t="s">
         <v>52</v>
       </c>
@@ -775,9 +835,9 @@
       <c r="M3" t="s">
         <v>23</v>
       </c>
-      <c r="N3" s="3"/>
-      <c r="O3" s="3"/>
-      <c r="Q3" s="15" t="s">
+      <c r="N3" s="4"/>
+      <c r="O3" s="4"/>
+      <c r="Q3" s="16" t="s">
         <v>61</v>
       </c>
       <c r="R3" t="s">
@@ -788,8 +848,8 @@
       <c r="A4" t="s">
         <v>17</v>
       </c>
-      <c r="B4" s="3"/>
-      <c r="C4" s="3"/>
+      <c r="B4" s="4"/>
+      <c r="C4" s="4"/>
       <c r="D4" t="s">
         <v>33</v>
       </c>
@@ -814,575 +874,623 @@
       <c r="K4" t="s">
         <v>37</v>
       </c>
-      <c r="L4" s="3"/>
-      <c r="M4" s="3"/>
-      <c r="N4" s="3"/>
-      <c r="O4" s="3"/>
+      <c r="L4" s="4"/>
+      <c r="M4" s="4"/>
+      <c r="N4" s="4"/>
+      <c r="O4" s="4"/>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B5" s="1">
-        <v>0</v>
-      </c>
-      <c r="C5" s="1">
+      <c r="B5" s="2">
+        <v>0</v>
+      </c>
+      <c r="C5" s="2">
         <v>1</v>
       </c>
-      <c r="D5" s="1">
+      <c r="D5" s="2">
         <v>2</v>
       </c>
-      <c r="E5" s="1">
+      <c r="E5" s="2">
         <v>3</v>
       </c>
-      <c r="F5" s="1">
+      <c r="F5" s="2">
         <v>4</v>
       </c>
-      <c r="G5" s="1">
+      <c r="G5" s="2">
         <v>5</v>
       </c>
-      <c r="H5" s="1">
+      <c r="H5" s="2">
         <v>6</v>
       </c>
-      <c r="I5" s="1">
+      <c r="I5" s="2">
         <v>7</v>
       </c>
-      <c r="J5" s="1">
+      <c r="J5" s="2">
         <v>8</v>
       </c>
-      <c r="K5" s="1">
+      <c r="K5" s="2">
         <v>9</v>
       </c>
-      <c r="L5" s="1">
+      <c r="L5" s="2">
         <v>10</v>
       </c>
-      <c r="M5" s="1">
+      <c r="M5" s="2">
         <v>11</v>
       </c>
-      <c r="N5" s="1">
+      <c r="N5" s="2">
         <v>12</v>
       </c>
-      <c r="O5" s="1">
+      <c r="O5" s="2">
         <v>13</v>
       </c>
-      <c r="P5" s="1">
+      <c r="P5" s="2">
         <v>14</v>
       </c>
-      <c r="Q5" s="1">
+      <c r="Q5" s="2">
         <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B6" s="1" t="s">
+      <c r="B6" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C6" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="D6" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E6" s="1" t="s">
+      <c r="E6" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F6" s="1" t="s">
+      <c r="F6" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="G6" s="1" t="s">
+      <c r="G6" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="H6" s="1" t="s">
+      <c r="H6" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="I6" s="1" t="s">
+      <c r="I6" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="J6" s="1" t="s">
+      <c r="J6" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="K6" s="1" t="s">
+      <c r="K6" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="L6" s="1" t="s">
+      <c r="L6" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="M6" s="1" t="s">
+      <c r="M6" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="N6" s="1" t="s">
+      <c r="N6" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="O6" s="1" t="s">
+      <c r="O6" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="P6" s="2" t="s">
+      <c r="P6" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="Q6" s="2" t="s">
+      <c r="Q6" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="R6" s="1" t="s">
+      <c r="R6" s="2" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B7" s="4">
-        <v>1</v>
-      </c>
-      <c r="C7" s="4">
-        <v>1</v>
-      </c>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
-      <c r="G7" s="4"/>
-      <c r="H7" s="4"/>
-      <c r="I7" s="4"/>
-      <c r="J7" s="4"/>
-      <c r="K7" s="4"/>
-      <c r="L7" s="4">
-        <v>1</v>
-      </c>
-      <c r="M7" s="4">
-        <v>1</v>
-      </c>
-      <c r="N7" s="4"/>
-      <c r="O7" s="6"/>
-      <c r="P7" s="8"/>
-      <c r="Q7" s="9"/>
-      <c r="R7" s="7">
+      <c r="B7" s="5"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="5"/>
+      <c r="I7" s="5"/>
+      <c r="J7" s="5"/>
+      <c r="K7" s="5"/>
+      <c r="L7" s="5"/>
+      <c r="M7" s="5"/>
+      <c r="N7" s="5"/>
+      <c r="O7" s="7"/>
+      <c r="P7" s="9"/>
+      <c r="Q7" s="10"/>
+      <c r="R7" s="8">
         <f>(((((((((((((((Q7)*2+P7)*2+O7)*2+N7)*2+M7)*2+L7)*2+K7)*2+J7)*2+I7)*2+H7)*2+G7)*2+F7)*2+E7)*2+D7)*2+C7)*2+B7</f>
-        <v>3075</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B8" s="10">
-        <v>1</v>
-      </c>
-      <c r="C8" s="10">
-        <v>1</v>
-      </c>
-      <c r="D8" s="10"/>
-      <c r="E8" s="10"/>
-      <c r="F8" s="10">
-        <v>1</v>
-      </c>
-      <c r="G8" s="10"/>
-      <c r="H8" s="10"/>
-      <c r="I8" s="10">
-        <v>1</v>
-      </c>
-      <c r="J8" s="10"/>
-      <c r="K8" s="10"/>
-      <c r="L8" s="10">
-        <v>1</v>
-      </c>
-      <c r="M8" s="10">
-        <v>1</v>
-      </c>
-      <c r="N8" s="10"/>
-      <c r="O8" s="11"/>
-      <c r="P8" s="12"/>
-      <c r="Q8" s="13"/>
-      <c r="R8" s="14">
+      <c r="B8" s="11"/>
+      <c r="C8" s="11"/>
+      <c r="D8" s="11"/>
+      <c r="E8" s="11"/>
+      <c r="F8" s="11"/>
+      <c r="G8" s="11"/>
+      <c r="H8" s="11"/>
+      <c r="I8" s="11"/>
+      <c r="J8" s="11"/>
+      <c r="K8" s="11"/>
+      <c r="L8" s="11"/>
+      <c r="M8" s="11"/>
+      <c r="N8" s="11"/>
+      <c r="O8" s="12"/>
+      <c r="P8" s="13"/>
+      <c r="Q8" s="14"/>
+      <c r="R8" s="15">
         <f t="shared" ref="R8:R26" si="0">(((((((((((((((Q8)*2+P8)*2+O8)*2+N8)*2+M8)*2+L8)*2+K8)*2+J8)*2+I8)*2+H8)*2+G8)*2+F8)*2+E8)*2+D8)*2+C8)*2+B8</f>
-        <v>3219</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B9" s="4"/>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
-      <c r="G9" s="4"/>
-      <c r="H9" s="4"/>
-      <c r="I9" s="4"/>
-      <c r="J9" s="4"/>
-      <c r="K9" s="4"/>
-      <c r="L9" s="4"/>
-      <c r="M9" s="4"/>
-      <c r="N9" s="4"/>
-      <c r="O9" s="6"/>
-      <c r="P9" s="8"/>
-      <c r="Q9" s="9"/>
-      <c r="R9" s="5">
+      <c r="B9" s="5"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="5"/>
+      <c r="I9" s="5"/>
+      <c r="J9" s="5"/>
+      <c r="K9" s="5"/>
+      <c r="L9" s="5"/>
+      <c r="M9" s="5"/>
+      <c r="N9" s="5"/>
+      <c r="O9" s="7"/>
+      <c r="P9" s="9"/>
+      <c r="Q9" s="10"/>
+      <c r="R9" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B10" s="10"/>
-      <c r="C10" s="10"/>
-      <c r="D10" s="10"/>
-      <c r="E10" s="10"/>
-      <c r="F10" s="10"/>
-      <c r="G10" s="10"/>
-      <c r="H10" s="10"/>
-      <c r="I10" s="10"/>
-      <c r="J10" s="10"/>
-      <c r="K10" s="10"/>
-      <c r="L10" s="10"/>
-      <c r="M10" s="10"/>
-      <c r="N10" s="10"/>
-      <c r="O10" s="11"/>
-      <c r="P10" s="12"/>
-      <c r="Q10" s="13"/>
-      <c r="R10" s="14">
+      <c r="B10" s="11"/>
+      <c r="C10" s="11"/>
+      <c r="D10" s="11"/>
+      <c r="E10" s="11"/>
+      <c r="F10" s="11"/>
+      <c r="G10" s="11"/>
+      <c r="H10" s="11"/>
+      <c r="I10" s="11"/>
+      <c r="J10" s="11"/>
+      <c r="K10" s="11"/>
+      <c r="L10" s="11"/>
+      <c r="M10" s="11"/>
+      <c r="N10" s="11"/>
+      <c r="O10" s="12"/>
+      <c r="P10" s="13"/>
+      <c r="Q10" s="14"/>
+      <c r="R10" s="15">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B11" s="4"/>
-      <c r="C11" s="4"/>
-      <c r="D11" s="4"/>
-      <c r="E11" s="4"/>
-      <c r="F11" s="4"/>
-      <c r="G11" s="4"/>
-      <c r="H11" s="4"/>
-      <c r="I11" s="4"/>
-      <c r="J11" s="4"/>
-      <c r="K11" s="4"/>
-      <c r="L11" s="4"/>
-      <c r="M11" s="4"/>
-      <c r="N11" s="4"/>
-      <c r="O11" s="6"/>
-      <c r="P11" s="8"/>
-      <c r="Q11" s="9"/>
-      <c r="R11" s="5">
+      <c r="B11" s="5"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="5"/>
+      <c r="H11" s="5"/>
+      <c r="I11" s="5"/>
+      <c r="J11" s="5"/>
+      <c r="K11" s="5"/>
+      <c r="L11" s="5"/>
+      <c r="M11" s="5"/>
+      <c r="N11" s="5"/>
+      <c r="O11" s="7"/>
+      <c r="P11" s="9"/>
+      <c r="Q11" s="10"/>
+      <c r="R11" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B12" s="10"/>
-      <c r="C12" s="10"/>
-      <c r="D12" s="10"/>
-      <c r="E12" s="10"/>
-      <c r="F12" s="10"/>
-      <c r="G12" s="10"/>
-      <c r="H12" s="10"/>
-      <c r="I12" s="10"/>
-      <c r="J12" s="10"/>
-      <c r="K12" s="10"/>
-      <c r="L12" s="10"/>
-      <c r="M12" s="10"/>
-      <c r="N12" s="10"/>
-      <c r="O12" s="11"/>
-      <c r="P12" s="12"/>
-      <c r="Q12" s="13"/>
-      <c r="R12" s="14">
+      <c r="B12" s="11"/>
+      <c r="C12" s="11"/>
+      <c r="D12" s="11"/>
+      <c r="E12" s="11"/>
+      <c r="F12" s="11"/>
+      <c r="G12" s="11"/>
+      <c r="H12" s="11"/>
+      <c r="I12" s="11"/>
+      <c r="J12" s="11"/>
+      <c r="K12" s="11"/>
+      <c r="L12" s="11"/>
+      <c r="M12" s="11"/>
+      <c r="N12" s="11"/>
+      <c r="O12" s="12"/>
+      <c r="P12" s="13"/>
+      <c r="Q12" s="14"/>
+      <c r="R12" s="15">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B13" s="4"/>
-      <c r="C13" s="4"/>
-      <c r="D13" s="4"/>
-      <c r="E13" s="4"/>
-      <c r="F13" s="4"/>
-      <c r="G13" s="4"/>
-      <c r="H13" s="4"/>
-      <c r="I13" s="4"/>
-      <c r="J13" s="4"/>
-      <c r="K13" s="4"/>
-      <c r="L13" s="4"/>
-      <c r="M13" s="4"/>
-      <c r="N13" s="4"/>
-      <c r="O13" s="6"/>
-      <c r="P13" s="8"/>
-      <c r="Q13" s="9"/>
-      <c r="R13" s="5">
+      <c r="B13" s="5"/>
+      <c r="C13" s="5"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="5"/>
+      <c r="H13" s="5"/>
+      <c r="I13" s="5"/>
+      <c r="J13" s="5"/>
+      <c r="K13" s="5"/>
+      <c r="L13" s="5"/>
+      <c r="M13" s="5"/>
+      <c r="N13" s="5"/>
+      <c r="O13" s="7"/>
+      <c r="P13" s="9"/>
+      <c r="Q13" s="10"/>
+      <c r="R13" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B14" s="10"/>
-      <c r="C14" s="10"/>
-      <c r="D14" s="10"/>
-      <c r="E14" s="10"/>
-      <c r="F14" s="10"/>
-      <c r="G14" s="10"/>
-      <c r="H14" s="10"/>
-      <c r="I14" s="10"/>
-      <c r="J14" s="10"/>
-      <c r="K14" s="10"/>
-      <c r="L14" s="10"/>
-      <c r="M14" s="10"/>
-      <c r="N14" s="10"/>
-      <c r="O14" s="11"/>
-      <c r="P14" s="12"/>
-      <c r="Q14" s="13"/>
-      <c r="R14" s="14">
+      <c r="B14" s="11"/>
+      <c r="C14" s="11"/>
+      <c r="D14" s="11"/>
+      <c r="E14" s="11"/>
+      <c r="F14" s="11"/>
+      <c r="G14" s="11"/>
+      <c r="H14" s="11"/>
+      <c r="I14" s="11"/>
+      <c r="J14" s="11"/>
+      <c r="K14" s="11"/>
+      <c r="L14" s="11"/>
+      <c r="M14" s="11"/>
+      <c r="N14" s="11"/>
+      <c r="O14" s="12"/>
+      <c r="P14" s="13"/>
+      <c r="Q14" s="14"/>
+      <c r="R14" s="15">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B15" s="4"/>
-      <c r="C15" s="4"/>
-      <c r="D15" s="4"/>
-      <c r="E15" s="4"/>
-      <c r="F15" s="4"/>
-      <c r="G15" s="4"/>
-      <c r="H15" s="4"/>
-      <c r="I15" s="4"/>
-      <c r="J15" s="4"/>
-      <c r="K15" s="4"/>
-      <c r="L15" s="4"/>
-      <c r="M15" s="4"/>
-      <c r="N15" s="4"/>
-      <c r="O15" s="6"/>
-      <c r="P15" s="8"/>
-      <c r="Q15" s="9"/>
-      <c r="R15" s="5">
+      <c r="B15" s="5"/>
+      <c r="C15" s="5"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="5"/>
+      <c r="G15" s="5"/>
+      <c r="H15" s="5"/>
+      <c r="I15" s="5"/>
+      <c r="J15" s="5"/>
+      <c r="K15" s="5"/>
+      <c r="L15" s="5"/>
+      <c r="M15" s="5"/>
+      <c r="N15" s="5"/>
+      <c r="O15" s="7"/>
+      <c r="P15" s="9"/>
+      <c r="Q15" s="10"/>
+      <c r="R15" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B16" s="10"/>
-      <c r="C16" s="10"/>
-      <c r="D16" s="10"/>
-      <c r="E16" s="10"/>
-      <c r="F16" s="10"/>
-      <c r="G16" s="10"/>
-      <c r="H16" s="10"/>
-      <c r="I16" s="10"/>
-      <c r="J16" s="10"/>
-      <c r="K16" s="10"/>
-      <c r="L16" s="10"/>
-      <c r="M16" s="10"/>
-      <c r="N16" s="10"/>
-      <c r="O16" s="11"/>
-      <c r="P16" s="12"/>
-      <c r="Q16" s="13"/>
-      <c r="R16" s="14">
+      <c r="B16" s="17"/>
+      <c r="C16" s="17"/>
+      <c r="D16" s="17"/>
+      <c r="E16" s="17"/>
+      <c r="F16" s="17"/>
+      <c r="G16" s="17"/>
+      <c r="H16" s="17"/>
+      <c r="I16" s="17"/>
+      <c r="J16" s="17"/>
+      <c r="K16" s="17"/>
+      <c r="L16" s="17"/>
+      <c r="M16" s="17"/>
+      <c r="N16" s="17"/>
+      <c r="O16" s="18"/>
+      <c r="P16" s="13"/>
+      <c r="Q16" s="14"/>
+      <c r="R16" s="19">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="17" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B17" s="4"/>
-      <c r="C17" s="4"/>
-      <c r="D17" s="4"/>
-      <c r="E17" s="4"/>
-      <c r="F17" s="4"/>
-      <c r="G17" s="4"/>
-      <c r="H17" s="4"/>
-      <c r="I17" s="4"/>
-      <c r="J17" s="4"/>
-      <c r="K17" s="4"/>
-      <c r="L17" s="4"/>
-      <c r="M17" s="4"/>
-      <c r="N17" s="4"/>
-      <c r="O17" s="6"/>
-      <c r="P17" s="8"/>
-      <c r="Q17" s="9"/>
-      <c r="R17" s="5">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+      <c r="B17" s="20"/>
+      <c r="C17" s="20"/>
+      <c r="D17" s="20"/>
+      <c r="E17" s="20"/>
+      <c r="F17" s="20"/>
+      <c r="G17" s="20"/>
+      <c r="H17" s="20"/>
+      <c r="I17" s="20"/>
+      <c r="J17" s="20"/>
+      <c r="K17" s="20"/>
+      <c r="L17" s="20"/>
+      <c r="M17" s="20"/>
+      <c r="N17" s="20"/>
+      <c r="O17" s="20"/>
+      <c r="P17" s="1"/>
+      <c r="Q17" s="1"/>
+      <c r="R17" s="20"/>
     </row>
     <row r="18" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B18" s="10"/>
-      <c r="C18" s="10"/>
-      <c r="D18" s="10"/>
-      <c r="E18" s="10"/>
-      <c r="F18" s="10"/>
-      <c r="G18" s="10"/>
-      <c r="H18" s="10"/>
-      <c r="I18" s="10"/>
-      <c r="J18" s="10"/>
-      <c r="K18" s="10"/>
-      <c r="L18" s="10"/>
-      <c r="M18" s="10"/>
-      <c r="N18" s="10"/>
-      <c r="O18" s="11"/>
-      <c r="P18" s="12"/>
-      <c r="Q18" s="13"/>
-      <c r="R18" s="14">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
+      <c r="H18" s="1"/>
+      <c r="I18" s="1"/>
+      <c r="J18" s="1"/>
+      <c r="K18" s="1"/>
+      <c r="L18" s="1"/>
+      <c r="M18" s="1"/>
+      <c r="N18" s="1"/>
+      <c r="O18" s="1"/>
+      <c r="P18" s="1"/>
+      <c r="Q18" s="1"/>
+      <c r="R18" s="1"/>
     </row>
     <row r="19" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B19" s="4"/>
-      <c r="C19" s="4"/>
-      <c r="D19" s="4"/>
-      <c r="E19" s="4"/>
-      <c r="F19" s="4"/>
-      <c r="G19" s="4"/>
-      <c r="H19" s="4"/>
-      <c r="I19" s="4"/>
-      <c r="J19" s="4"/>
-      <c r="K19" s="4"/>
-      <c r="L19" s="4"/>
-      <c r="M19" s="4"/>
-      <c r="N19" s="4"/>
-      <c r="O19" s="6"/>
-      <c r="P19" s="8"/>
-      <c r="Q19" s="9"/>
-      <c r="R19" s="5">
-        <f t="shared" si="0"/>
+      <c r="N19" s="1"/>
+      <c r="O19" s="21" t="str">
+        <f>"0b"&amp;DEC2BIN(R19/256,8)&amp;DEC2BIN(MOD(R19,256),8)</f>
+        <v>0b0000000000000000</v>
+      </c>
+      <c r="P19" s="21"/>
+      <c r="Q19" s="22"/>
+      <c r="R19" s="6">
         <v>0</v>
       </c>
     </row>
     <row r="20" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B20" s="10"/>
-      <c r="C20" s="10"/>
-      <c r="D20" s="10"/>
-      <c r="E20" s="10"/>
-      <c r="F20" s="10"/>
-      <c r="G20" s="10"/>
-      <c r="H20" s="10"/>
-      <c r="I20" s="10"/>
-      <c r="J20" s="10"/>
-      <c r="K20" s="10"/>
-      <c r="L20" s="10"/>
-      <c r="M20" s="10"/>
-      <c r="N20" s="10"/>
-      <c r="O20" s="11"/>
-      <c r="P20" s="12"/>
-      <c r="Q20" s="13"/>
-      <c r="R20" s="14">
-        <f t="shared" si="0"/>
+      <c r="N20" s="1"/>
+      <c r="O20" s="23" t="str">
+        <f>"0b"&amp;DEC2BIN(R20/256,8)&amp;DEC2BIN(MOD(R20,256),8)</f>
+        <v>0b0000000000000000</v>
+      </c>
+      <c r="P20" s="23"/>
+      <c r="Q20" s="24"/>
+      <c r="R20" s="15">
         <v>0</v>
       </c>
     </row>
     <row r="21" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B21" s="4"/>
-      <c r="C21" s="4"/>
-      <c r="D21" s="4"/>
-      <c r="E21" s="4"/>
-      <c r="F21" s="4"/>
-      <c r="G21" s="4"/>
-      <c r="H21" s="4"/>
-      <c r="I21" s="4"/>
-      <c r="J21" s="4"/>
-      <c r="K21" s="4"/>
-      <c r="L21" s="4"/>
-      <c r="M21" s="4"/>
-      <c r="N21" s="4"/>
-      <c r="O21" s="6"/>
-      <c r="P21" s="8"/>
-      <c r="Q21" s="9"/>
-      <c r="R21" s="5">
-        <f t="shared" si="0"/>
+      <c r="B21" s="1"/>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1"/>
+      <c r="F21" s="1"/>
+      <c r="G21" s="1"/>
+      <c r="H21" s="1"/>
+      <c r="I21" s="1"/>
+      <c r="J21" s="1"/>
+      <c r="K21" s="1"/>
+      <c r="L21" s="1"/>
+      <c r="M21" s="1"/>
+      <c r="N21" s="1"/>
+      <c r="O21" s="21" t="str">
+        <f t="shared" ref="O21:O32" si="1">"0b"&amp;DEC2BIN(R21/256,8)&amp;DEC2BIN(MOD(R21,256),8)</f>
+        <v>0b0000000000000000</v>
+      </c>
+      <c r="P21" s="21"/>
+      <c r="Q21" s="22"/>
+      <c r="R21" s="6">
         <v>0</v>
       </c>
     </row>
     <row r="22" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B22" s="10"/>
-      <c r="C22" s="10"/>
-      <c r="D22" s="10"/>
-      <c r="E22" s="10"/>
-      <c r="F22" s="10"/>
-      <c r="G22" s="10"/>
-      <c r="H22" s="10"/>
-      <c r="I22" s="10"/>
-      <c r="J22" s="10"/>
-      <c r="K22" s="10"/>
-      <c r="L22" s="10"/>
-      <c r="M22" s="10"/>
-      <c r="N22" s="10"/>
-      <c r="O22" s="11"/>
-      <c r="P22" s="12"/>
-      <c r="Q22" s="13"/>
-      <c r="R22" s="14">
-        <f t="shared" si="0"/>
+      <c r="B22" s="1"/>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1"/>
+      <c r="F22" s="1"/>
+      <c r="G22" s="1"/>
+      <c r="H22" s="1"/>
+      <c r="I22" s="1"/>
+      <c r="J22" s="1"/>
+      <c r="K22" s="1"/>
+      <c r="L22" s="1"/>
+      <c r="M22" s="1"/>
+      <c r="N22" s="1"/>
+      <c r="O22" s="23" t="str">
+        <f t="shared" si="1"/>
+        <v>0b0000000000000000</v>
+      </c>
+      <c r="P22" s="23"/>
+      <c r="Q22" s="24"/>
+      <c r="R22" s="15">
         <v>0</v>
       </c>
     </row>
     <row r="23" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B23" s="4"/>
-      <c r="C23" s="4"/>
-      <c r="D23" s="4"/>
-      <c r="E23" s="4"/>
-      <c r="F23" s="4"/>
-      <c r="G23" s="4"/>
-      <c r="H23" s="4"/>
-      <c r="I23" s="4"/>
-      <c r="J23" s="4"/>
-      <c r="K23" s="4"/>
-      <c r="L23" s="4"/>
-      <c r="M23" s="4"/>
-      <c r="N23" s="4"/>
-      <c r="O23" s="6"/>
-      <c r="P23" s="8"/>
-      <c r="Q23" s="9"/>
-      <c r="R23" s="5">
-        <f t="shared" si="0"/>
+      <c r="B23" s="1"/>
+      <c r="C23" s="1"/>
+      <c r="D23" s="1"/>
+      <c r="E23" s="1"/>
+      <c r="F23" s="1"/>
+      <c r="G23" s="1"/>
+      <c r="H23" s="1"/>
+      <c r="I23" s="1"/>
+      <c r="J23" s="1"/>
+      <c r="K23" s="1"/>
+      <c r="L23" s="1"/>
+      <c r="M23" s="1"/>
+      <c r="N23" s="1"/>
+      <c r="O23" s="21" t="str">
+        <f t="shared" si="1"/>
+        <v>0b0000000000000000</v>
+      </c>
+      <c r="P23" s="21"/>
+      <c r="Q23" s="22"/>
+      <c r="R23" s="6">
         <v>0</v>
       </c>
     </row>
     <row r="24" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B24" s="10"/>
-      <c r="C24" s="10"/>
-      <c r="D24" s="10"/>
-      <c r="E24" s="10"/>
-      <c r="F24" s="10"/>
-      <c r="G24" s="10"/>
-      <c r="H24" s="10"/>
-      <c r="I24" s="10"/>
-      <c r="J24" s="10"/>
-      <c r="K24" s="10"/>
-      <c r="L24" s="10"/>
-      <c r="M24" s="10"/>
-      <c r="N24" s="10"/>
-      <c r="O24" s="11"/>
-      <c r="P24" s="12"/>
-      <c r="Q24" s="13"/>
-      <c r="R24" s="14">
-        <f t="shared" si="0"/>
+      <c r="B24" s="1"/>
+      <c r="C24" s="1"/>
+      <c r="D24" s="1"/>
+      <c r="E24" s="1"/>
+      <c r="F24" s="1"/>
+      <c r="G24" s="1"/>
+      <c r="H24" s="1"/>
+      <c r="I24" s="1"/>
+      <c r="J24" s="1"/>
+      <c r="K24" s="1"/>
+      <c r="L24" s="1"/>
+      <c r="M24" s="1"/>
+      <c r="N24" s="1"/>
+      <c r="O24" s="23" t="str">
+        <f t="shared" si="1"/>
+        <v>0b0000000000000000</v>
+      </c>
+      <c r="P24" s="23"/>
+      <c r="Q24" s="24"/>
+      <c r="R24" s="15">
         <v>0</v>
       </c>
     </row>
     <row r="25" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B25" s="4"/>
-      <c r="C25" s="4"/>
-      <c r="D25" s="4"/>
-      <c r="E25" s="4"/>
-      <c r="F25" s="4"/>
-      <c r="G25" s="4"/>
-      <c r="H25" s="4"/>
-      <c r="I25" s="4"/>
-      <c r="J25" s="4"/>
-      <c r="K25" s="4"/>
-      <c r="L25" s="4"/>
-      <c r="M25" s="4"/>
-      <c r="N25" s="4"/>
-      <c r="O25" s="6"/>
-      <c r="P25" s="8"/>
-      <c r="Q25" s="9"/>
-      <c r="R25" s="5">
-        <f t="shared" si="0"/>
+      <c r="B25" s="1"/>
+      <c r="C25" s="1"/>
+      <c r="D25" s="1"/>
+      <c r="E25" s="1"/>
+      <c r="F25" s="1"/>
+      <c r="G25" s="1"/>
+      <c r="H25" s="1"/>
+      <c r="I25" s="1"/>
+      <c r="J25" s="1"/>
+      <c r="K25" s="1"/>
+      <c r="L25" s="1"/>
+      <c r="M25" s="1"/>
+      <c r="N25" s="1"/>
+      <c r="O25" s="21" t="str">
+        <f t="shared" si="1"/>
+        <v>0b0000000000000000</v>
+      </c>
+      <c r="P25" s="21"/>
+      <c r="Q25" s="22"/>
+      <c r="R25" s="6">
         <v>0</v>
       </c>
     </row>
     <row r="26" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B26" s="10"/>
-      <c r="C26" s="10"/>
-      <c r="D26" s="10"/>
-      <c r="E26" s="10"/>
-      <c r="F26" s="10"/>
-      <c r="G26" s="10"/>
-      <c r="H26" s="10"/>
-      <c r="I26" s="10"/>
-      <c r="J26" s="10"/>
-      <c r="K26" s="10"/>
-      <c r="L26" s="10"/>
-      <c r="M26" s="10"/>
-      <c r="N26" s="10"/>
-      <c r="O26" s="11"/>
-      <c r="P26" s="12"/>
-      <c r="Q26" s="13"/>
-      <c r="R26" s="14">
-        <f t="shared" si="0"/>
+      <c r="B26" s="1"/>
+      <c r="C26" s="1"/>
+      <c r="D26" s="1"/>
+      <c r="E26" s="1"/>
+      <c r="F26" s="1"/>
+      <c r="G26" s="1"/>
+      <c r="H26" s="1"/>
+      <c r="I26" s="1"/>
+      <c r="J26" s="1"/>
+      <c r="K26" s="1"/>
+      <c r="L26" s="1"/>
+      <c r="M26" s="1"/>
+      <c r="N26" s="1"/>
+      <c r="O26" s="23" t="str">
+        <f t="shared" si="1"/>
+        <v>0b0000000000000000</v>
+      </c>
+      <c r="P26" s="23"/>
+      <c r="Q26" s="24"/>
+      <c r="R26" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="O27" s="21" t="str">
+        <f t="shared" si="1"/>
+        <v>0b0000000000000000</v>
+      </c>
+      <c r="P27" s="21"/>
+      <c r="Q27" s="22"/>
+      <c r="R27" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="O28" s="23" t="str">
+        <f t="shared" si="1"/>
+        <v>0b0000000000000000</v>
+      </c>
+      <c r="P28" s="23"/>
+      <c r="Q28" s="24"/>
+      <c r="R28" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="O29" s="21" t="str">
+        <f t="shared" si="1"/>
+        <v>0b0000000000000000</v>
+      </c>
+      <c r="P29" s="21"/>
+      <c r="Q29" s="22"/>
+      <c r="R29" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="O30" s="23" t="str">
+        <f t="shared" si="1"/>
+        <v>0b0000000000000000</v>
+      </c>
+      <c r="P30" s="23"/>
+      <c r="Q30" s="24"/>
+      <c r="R30" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="O31" s="21" t="str">
+        <f t="shared" si="1"/>
+        <v>0b0000000000000000</v>
+      </c>
+      <c r="P31" s="21"/>
+      <c r="Q31" s="22"/>
+      <c r="R31" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="O32" s="23" t="str">
+        <f t="shared" si="1"/>
+        <v>0b0000000000000000</v>
+      </c>
+      <c r="P32" s="23"/>
+      <c r="Q32" s="24"/>
+      <c r="R32" s="15">
         <v>0</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="14">
+    <mergeCell ref="O31:Q31"/>
+    <mergeCell ref="O32:Q32"/>
+    <mergeCell ref="O25:Q25"/>
+    <mergeCell ref="O26:Q26"/>
+    <mergeCell ref="O27:Q27"/>
+    <mergeCell ref="O28:Q28"/>
+    <mergeCell ref="O29:Q29"/>
+    <mergeCell ref="O30:Q30"/>
+    <mergeCell ref="O19:Q19"/>
+    <mergeCell ref="O20:Q20"/>
+    <mergeCell ref="O21:Q21"/>
+    <mergeCell ref="O22:Q22"/>
+    <mergeCell ref="O23:Q23"/>
+    <mergeCell ref="O24:Q24"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
